--- a/src/test/java/Utils/TestData.xlsx
+++ b/src/test/java/Utils/TestData.xlsx
@@ -4,30 +4,66 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="830" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DATABASE_SETUP" sheetId="4" r:id="rId1"/>
-    <sheet name="SIGNUP" sheetId="2" r:id="rId2"/>
-    <sheet name="SIGNIN" sheetId="3" r:id="rId3"/>
-    <sheet name="MEMBERSHIP" sheetId="5" r:id="rId4"/>
-    <sheet name="DONATION" sheetId="1" r:id="rId5"/>
-    <sheet name="EDUCATION" sheetId="6" r:id="rId6"/>
-    <sheet name="ADOPT" sheetId="7" r:id="rId7"/>
-    <sheet name="SHOPPING_CART" sheetId="8" r:id="rId8"/>
-    <sheet name="PAYMENT" sheetId="9" r:id="rId9"/>
+    <sheet name="REQUIREMENTS" sheetId="10" r:id="rId1"/>
+    <sheet name="DATABASE_CONNECTION" sheetId="4" r:id="rId2"/>
+    <sheet name="SIGNUP" sheetId="2" r:id="rId3"/>
+    <sheet name="SIGNIN" sheetId="3" r:id="rId4"/>
+    <sheet name="MEMBERSHIP" sheetId="5" r:id="rId5"/>
+    <sheet name="DONATION" sheetId="1" r:id="rId6"/>
+    <sheet name="EDUCATION" sheetId="6" r:id="rId7"/>
+    <sheet name="ADOPT" sheetId="7" r:id="rId8"/>
+    <sheet name="SHOPPING_CART" sheetId="8" r:id="rId9"/>
+    <sheet name="PAYMENT" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="Select" localSheetId="5">DONATION!$B$80:$B$81</definedName>
     <definedName name="Select" localSheetId="4">DONATION!$B$80:$B$81</definedName>
-    <definedName name="Select" localSheetId="3">DONATION!$B$80:$B$81</definedName>
     <definedName name="This_gift_is_being_made_in_memory_or_as_a_tribute_to_someone">DONATION!$B$80:$B$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If User selected as Exist:
+Enter UserName and Password of the existing user.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>This gift is being made in memory or as a tribute to someone</t>
   </si>
@@ -162,13 +198,91 @@
   </si>
   <si>
     <t>CVV</t>
+  </si>
+  <si>
+    <t>REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>Browser Name</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>FireFox</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>OREO</t>
+  </si>
+  <si>
+    <t>ERIE</t>
+  </si>
+  <si>
+    <t>CWMA</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://fp360.us:496/#/</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>192.168.168.14</t>
+  </si>
+  <si>
+    <t>Ecomm Data Base</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Data Base Name</t>
+  </si>
+  <si>
+    <t>FPREcommOREO</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>wr2018$</t>
+  </si>
+  <si>
+    <t>KMWARE Data Base</t>
+  </si>
+  <si>
+    <t>ORGE</t>
+  </si>
+  <si>
+    <t>kmit123$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +305,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +344,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -342,7 +475,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,8 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -372,13 +503,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -676,24 +822,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="16">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>$B$71:$B$72</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>$B$74:$B$76</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>$B$83:$B$84</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2" location="/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="16">
+        <v>5499990123456780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="8">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -711,43 +1155,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="8"/>
@@ -757,12 +1201,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,15 +1224,15 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="8">
@@ -803,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -826,34 +1270,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,7 +1305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B87"/>
   <sheetViews>
@@ -1003,7 +1447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1029,7 +1473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1055,53 +1499,53 @@
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,12 +1553,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1132,144 +1576,144 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1279,56 +1723,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="19">
-        <v>5499990123456780</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="8">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/java/Utils/TestData.xlsx
+++ b/src/test/java/Utils/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REQUIREMENTS" sheetId="10" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>This gift is being made in memory or as a tribute to someone</t>
   </si>
@@ -149,12 +149,6 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>Primary Member Name</t>
-  </si>
-  <si>
-    <t>Secondary Member Name</t>
-  </si>
-  <si>
     <t>Number of Children</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>ZipCode</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>MAILING INFORMATION</t>
   </si>
   <si>
@@ -276,6 +267,108 @@
   </si>
   <si>
     <t>kmit123$</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>Kohli</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>80 53rd Ave.</t>
+  </si>
+  <si>
+    <t>Woburn</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>test123456</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>9814 Willow Ave</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>999 Tunnel Ave</t>
+  </si>
+  <si>
+    <t>WoodStock</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Care Giver1 First Name</t>
+  </si>
+  <si>
+    <t>Care Giver2 Last Name</t>
+  </si>
+  <si>
+    <t>Care Giver2 First Name</t>
+  </si>
+  <si>
+    <t>Care Giver1 Last Name</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Wookstock</t>
+  </si>
+  <si>
+    <t>testmail@kmitsolutions.com</t>
+  </si>
+  <si>
+    <t>CertificateDisplayName</t>
+  </si>
+  <si>
+    <t>Primary Member First Name</t>
+  </si>
+  <si>
+    <t>Primary Member Second Name</t>
+  </si>
+  <si>
+    <t>Secondary Member First Name</t>
+  </si>
+  <si>
+    <t>Secondary Member Second Name</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Patricia</t>
   </si>
 </sst>
 </file>
@@ -512,12 +605,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,6 +613,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -825,7 +918,7 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,54 +929,54 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
-        <v>53</v>
-      </c>
       <c r="B4" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="23" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="16">
@@ -892,46 +985,46 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="B72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="B75" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +1073,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="16">
         <v>5499990123456780</v>
@@ -988,7 +1081,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8">
         <v>1219</v>
@@ -996,7 +1089,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8">
         <v>123</v>
@@ -1012,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,103 +1116,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="21"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
+      <c r="B5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="25"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="B11" s="24">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="26">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="24" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="21"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="26">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1134,16 +1227,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -1155,49 +1248,86 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="24">
+        <v>5417543010</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1206,7 +1336,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1224,7 +1354,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1249,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1271,33 +1401,91 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="12"/>
+      <c r="A3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,7 +1498,7 @@
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1475,16 +1663,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1497,74 +1685,111 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="8">
+        <v>99524</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7"/>
       <c r="B10" s="12"/>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>$B$33:$B$34</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1576,20 +1801,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="20"/>
+      <c r="A2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12"/>
     </row>
@@ -1597,128 +1824,146 @@
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="B10" s="16">
+        <v>99501</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="16">
+        <v>2136210002</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="12"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="20"/>
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="F16" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="E19" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="16">
+        <v>99524</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="12"/>
+      <c r="B22" s="16">
+        <v>7005554141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/src/test/java/Utils/TestData.xlsx
+++ b/src/test/java/Utils/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="830"/>
   </bookViews>
   <sheets>
     <sheet name="REQUIREMENTS" sheetId="10" r:id="rId1"/>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
